--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/C3-Itgb2.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/C3-Itgb2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T31"/>
+  <dimension ref="A1:T37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -543,16 +543,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.67831</v>
+        <v>2.0407475</v>
       </c>
       <c r="H2">
-        <v>1.35662</v>
+        <v>4.081495</v>
       </c>
       <c r="I2">
-        <v>0.004405345910740629</v>
+        <v>0.007689531190315315</v>
       </c>
       <c r="J2">
-        <v>0.002944056215323526</v>
+        <v>0.005145434208836267</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.370512</v>
+        <v>0.2680845</v>
       </c>
       <c r="N2">
-        <v>0.741024</v>
+        <v>0.536169</v>
       </c>
       <c r="O2">
-        <v>0.001638838393995521</v>
+        <v>0.0005812041106144338</v>
       </c>
       <c r="P2">
-        <v>0.00109315609805839</v>
+        <v>0.0003877157488557307</v>
       </c>
       <c r="Q2">
-        <v>0.25132199472</v>
+        <v>0.54709277316375</v>
       </c>
       <c r="R2">
-        <v>1.00528797888</v>
+        <v>2.188371092655</v>
       </c>
       <c r="S2">
-        <v>7.219650017352909E-06</v>
+        <v>4.469187136509161E-06</v>
       </c>
       <c r="T2">
-        <v>3.218313004807617E-06</v>
+        <v>1.994965877466847E-06</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.67831</v>
+        <v>2.0407475</v>
       </c>
       <c r="H3">
-        <v>1.35662</v>
+        <v>4.081495</v>
       </c>
       <c r="I3">
-        <v>0.004405345910740629</v>
+        <v>0.007689531190315315</v>
       </c>
       <c r="J3">
-        <v>0.002944056215323526</v>
+        <v>0.005145434208836267</v>
       </c>
       <c r="K3">
         <v>1</v>
@@ -629,22 +629,22 @@
         <v>0.040702</v>
       </c>
       <c r="O3">
-        <v>6.001065220776088E-05</v>
+        <v>2.941382252017391E-05</v>
       </c>
       <c r="P3">
-        <v>6.004345271296557E-05</v>
+        <v>2.943252297302894E-05</v>
       </c>
       <c r="Q3">
-        <v>0.009202857873333333</v>
+        <v>0.02768750158166667</v>
       </c>
       <c r="R3">
-        <v>0.05521714723999999</v>
+        <v>0.16612500949</v>
       </c>
       <c r="S3">
-        <v>2.643676813043375E-07</v>
+        <v>2.261785056952763E-07</v>
       </c>
       <c r="T3">
-        <v>1.767713001490905E-07</v>
+        <v>1.514431105577824E-07</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -667,16 +667,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.67831</v>
+        <v>2.0407475</v>
       </c>
       <c r="H4">
-        <v>1.35662</v>
+        <v>4.081495</v>
       </c>
       <c r="I4">
-        <v>0.004405345910740629</v>
+        <v>0.007689531190315315</v>
       </c>
       <c r="J4">
-        <v>0.002944056215323526</v>
+        <v>0.005145434208836267</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>124.6539663333333</v>
+        <v>160.3781766666667</v>
       </c>
       <c r="N4">
-        <v>373.961899</v>
+        <v>481.13453</v>
       </c>
       <c r="O4">
-        <v>0.5513659638308389</v>
+        <v>0.3476980412202665</v>
       </c>
       <c r="P4">
-        <v>0.5516673283636506</v>
+        <v>0.34791909752205</v>
       </c>
       <c r="Q4">
-        <v>84.55403190356334</v>
+        <v>327.2913630870584</v>
       </c>
       <c r="R4">
-        <v>507.32419142138</v>
+        <v>1963.74817852235</v>
       </c>
       <c r="S4">
-        <v>0.002428957794083752</v>
+        <v>0.00267363493277478</v>
       </c>
       <c r="T4">
-        <v>0.00162413962685993</v>
+        <v>0.001790194826297397</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,7 +720,7 @@
         <v>27</v>
       </c>
       <c r="D5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E5">
         <v>2</v>
@@ -729,46 +729,46 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.67831</v>
+        <v>2.0407475</v>
       </c>
       <c r="H5">
-        <v>1.35662</v>
+        <v>4.081495</v>
       </c>
       <c r="I5">
-        <v>0.004405345910740629</v>
+        <v>0.007689531190315315</v>
       </c>
       <c r="J5">
-        <v>0.002944056215323526</v>
+        <v>0.005145434208836267</v>
       </c>
       <c r="K5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L5">
-        <v>0.6666666666666666</v>
+        <v>0.5</v>
       </c>
       <c r="M5">
-        <v>0.4121773333333333</v>
+        <v>0.6111180000000001</v>
       </c>
       <c r="N5">
-        <v>1.236532</v>
+        <v>1.222236</v>
       </c>
       <c r="O5">
-        <v>0.001823131339879293</v>
+        <v>0.001324896790640531</v>
       </c>
       <c r="P5">
-        <v>0.001824127823450168</v>
+        <v>0.000883826080990197</v>
       </c>
       <c r="Q5">
-        <v>0.2795840069733333</v>
+        <v>1.247137530705</v>
       </c>
       <c r="R5">
-        <v>1.67750404184</v>
+        <v>4.98855012282</v>
       </c>
       <c r="S5">
-        <v>8.031524192880329E-06</v>
+        <v>1.018783519557903E-05</v>
       </c>
       <c r="T5">
-        <v>5.370334856173043E-06</v>
+        <v>4.547668951788652E-06</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,7 +782,7 @@
         <v>27</v>
       </c>
       <c r="D6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E6">
         <v>2</v>
@@ -791,16 +791,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.67831</v>
+        <v>2.0407475</v>
       </c>
       <c r="H6">
-        <v>1.35662</v>
+        <v>4.081495</v>
       </c>
       <c r="I6">
-        <v>0.004405345910740629</v>
+        <v>0.007689531190315315</v>
       </c>
       <c r="J6">
-        <v>0.002944056215323526</v>
+        <v>0.005145434208836267</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,33 +809,33 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>100.6318613333333</v>
+        <v>190.6043296666667</v>
       </c>
       <c r="N6">
-        <v>301.895584</v>
+        <v>571.812989</v>
       </c>
       <c r="O6">
-        <v>0.4451120557830785</v>
+        <v>0.4132279930513526</v>
       </c>
       <c r="P6">
-        <v>0.4453553442621278</v>
+        <v>0.4134907113905666</v>
       </c>
       <c r="Q6">
-        <v>68.25959786101333</v>
+        <v>388.9753092564259</v>
       </c>
       <c r="R6">
-        <v>409.5575871660799</v>
+        <v>2333.851855538555</v>
       </c>
       <c r="S6">
-        <v>0.00196087257476534</v>
+        <v>0.003177529541279776</v>
       </c>
       <c r="T6">
-        <v>0.001311151169302466</v>
+        <v>0.002127589251425065</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B7" t="s">
         <v>26</v>
@@ -844,55 +844,55 @@
         <v>27</v>
       </c>
       <c r="D7" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="E7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>108.0898166666667</v>
+        <v>2.0407475</v>
       </c>
       <c r="H7">
-        <v>324.26945</v>
+        <v>4.081495</v>
       </c>
       <c r="I7">
-        <v>0.7019991329115071</v>
+        <v>0.007689531190315315</v>
       </c>
       <c r="J7">
-        <v>0.7037103166045329</v>
+        <v>0.005145434208836267</v>
       </c>
       <c r="K7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.370512</v>
+        <v>109.381785</v>
       </c>
       <c r="N7">
-        <v>0.741024</v>
+        <v>328.145355</v>
       </c>
       <c r="O7">
-        <v>0.001638838393995521</v>
+        <v>0.2371384510046057</v>
       </c>
       <c r="P7">
-        <v>0.00109315609805839</v>
+        <v>0.2372892167345643</v>
       </c>
       <c r="Q7">
-        <v>40.0485741528</v>
+        <v>223.2206042842875</v>
       </c>
       <c r="R7">
-        <v>240.2914449168</v>
+        <v>1339.323625705725</v>
       </c>
       <c r="S7">
-        <v>0.001150463131566943</v>
+        <v>0.001823483515422975</v>
       </c>
       <c r="T7">
-        <v>0.0007692652238628456</v>
+        <v>0.00122095605317399</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,7 +906,7 @@
         <v>27</v>
       </c>
       <c r="D8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E8">
         <v>3</v>
@@ -921,40 +921,40 @@
         <v>324.26945</v>
       </c>
       <c r="I8">
-        <v>0.7019991329115071</v>
+        <v>0.4072821437310581</v>
       </c>
       <c r="J8">
-        <v>0.7037103166045329</v>
+        <v>0.4087980313366845</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L8">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M8">
-        <v>0.01356733333333333</v>
+        <v>0.2680845</v>
       </c>
       <c r="N8">
-        <v>0.040702</v>
+        <v>0.536169</v>
       </c>
       <c r="O8">
-        <v>6.001065220776088E-05</v>
+        <v>0.0005812041106144338</v>
       </c>
       <c r="P8">
-        <v>6.004345271296557E-05</v>
+        <v>0.0003877157488557307</v>
       </c>
       <c r="Q8">
-        <v>1.466490572655555</v>
+        <v>28.977204456175</v>
       </c>
       <c r="R8">
-        <v>13.1984151539</v>
+        <v>173.86322673705</v>
       </c>
       <c r="S8">
-        <v>4.212742581530215E-05</v>
+        <v>0.0002367140561163496</v>
       </c>
       <c r="T8">
-        <v>4.225319711867029E-05</v>
+        <v>0.0001584974348504511</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,7 +968,7 @@
         <v>27</v>
       </c>
       <c r="D9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E9">
         <v>3</v>
@@ -983,40 +983,40 @@
         <v>324.26945</v>
       </c>
       <c r="I9">
-        <v>0.7019991329115071</v>
+        <v>0.4072821437310581</v>
       </c>
       <c r="J9">
-        <v>0.7037103166045329</v>
+        <v>0.4087980313366845</v>
       </c>
       <c r="K9">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L9">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M9">
-        <v>124.6539663333333</v>
+        <v>0.01356733333333333</v>
       </c>
       <c r="N9">
-        <v>373.961899</v>
+        <v>0.040702</v>
       </c>
       <c r="O9">
-        <v>0.5513659638308389</v>
+        <v>2.941382252017391E-05</v>
       </c>
       <c r="P9">
-        <v>0.5516673283636506</v>
+        <v>2.943252297302894E-05</v>
       </c>
       <c r="Q9">
-        <v>13473.82436774284</v>
+        <v>1.466490572655555</v>
       </c>
       <c r="R9">
-        <v>121264.4193096856</v>
+        <v>13.1984151539</v>
       </c>
       <c r="S9">
-        <v>0.3870584285261663</v>
+        <v>1.19797246913413E-05</v>
       </c>
       <c r="T9">
-        <v>0.3882139903031614</v>
+        <v>1.203195744864597E-05</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,7 +1030,7 @@
         <v>27</v>
       </c>
       <c r="D10" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E10">
         <v>3</v>
@@ -1045,40 +1045,40 @@
         <v>324.26945</v>
       </c>
       <c r="I10">
-        <v>0.7019991329115071</v>
+        <v>0.4072821437310581</v>
       </c>
       <c r="J10">
-        <v>0.7037103166045329</v>
+        <v>0.4087980313366845</v>
       </c>
       <c r="K10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L10">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M10">
-        <v>0.4121773333333333</v>
+        <v>160.3781766666667</v>
       </c>
       <c r="N10">
-        <v>1.236532</v>
+        <v>481.13453</v>
       </c>
       <c r="O10">
-        <v>0.001823131339879293</v>
+        <v>0.3476980412202665</v>
       </c>
       <c r="P10">
-        <v>0.001824127823450168</v>
+        <v>0.34791909752205</v>
       </c>
       <c r="Q10">
-        <v>44.55217239415555</v>
+        <v>17335.24771323428</v>
       </c>
       <c r="R10">
-        <v>400.9695515474</v>
+        <v>156017.2294191085</v>
       </c>
       <c r="S10">
-        <v>0.001279836619779058</v>
+        <v>0.14161120359928</v>
       </c>
       <c r="T10">
-        <v>0.001283657568167255</v>
+        <v>0.14222864213145</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1092,7 +1092,7 @@
         <v>27</v>
       </c>
       <c r="D11" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E11">
         <v>3</v>
@@ -1107,45 +1107,45 @@
         <v>324.26945</v>
       </c>
       <c r="I11">
-        <v>0.7019991329115071</v>
+        <v>0.4072821437310581</v>
       </c>
       <c r="J11">
-        <v>0.7037103166045329</v>
+        <v>0.4087980313366845</v>
       </c>
       <c r="K11">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L11">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="M11">
-        <v>100.6318613333333</v>
+        <v>0.6111180000000001</v>
       </c>
       <c r="N11">
-        <v>301.895584</v>
+        <v>1.222236</v>
       </c>
       <c r="O11">
-        <v>0.4451120557830785</v>
+        <v>0.001324896790640531</v>
       </c>
       <c r="P11">
-        <v>0.4453553442621278</v>
+        <v>0.000883826080990197</v>
       </c>
       <c r="Q11">
-        <v>10877.27944234542</v>
+        <v>66.05563258170001</v>
       </c>
       <c r="R11">
-        <v>97895.51498110879</v>
+        <v>396.3337954902</v>
       </c>
       <c r="S11">
-        <v>0.3124682772081795</v>
+        <v>0.0005396068051144745</v>
       </c>
       <c r="T11">
-        <v>0.3134011503122227</v>
+        <v>0.0003613063619528096</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B12" t="s">
         <v>26</v>
@@ -1154,7 +1154,7 @@
         <v>27</v>
       </c>
       <c r="D12" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="E12">
         <v>3</v>
@@ -1163,51 +1163,51 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>17.58332566666667</v>
+        <v>108.0898166666667</v>
       </c>
       <c r="H12">
-        <v>52.749977</v>
+        <v>324.26945</v>
       </c>
       <c r="I12">
-        <v>0.114196505761187</v>
+        <v>0.4072821437310581</v>
       </c>
       <c r="J12">
-        <v>0.1144748696355818</v>
+        <v>0.4087980313366845</v>
       </c>
       <c r="K12">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>0.370512</v>
+        <v>190.6043296666667</v>
       </c>
       <c r="N12">
-        <v>0.741024</v>
+        <v>571.812989</v>
       </c>
       <c r="O12">
-        <v>0.001638838393995521</v>
+        <v>0.4132279930513526</v>
       </c>
       <c r="P12">
-        <v>0.00109315609805839</v>
+        <v>0.4134907113905666</v>
       </c>
       <c r="Q12">
-        <v>6.514833159408</v>
+        <v>20602.38704954289</v>
       </c>
       <c r="R12">
-        <v>39.088998956448</v>
+        <v>185421.4834458861</v>
       </c>
       <c r="S12">
-        <v>0.000187149618101564</v>
+        <v>0.1683003828596377</v>
       </c>
       <c r="T12">
-        <v>0.0001251389018165756</v>
+        <v>0.1690341887924688</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B13" t="s">
         <v>26</v>
@@ -1216,7 +1216,7 @@
         <v>27</v>
       </c>
       <c r="D13" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="E13">
         <v>3</v>
@@ -1225,46 +1225,46 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>17.58332566666667</v>
+        <v>108.0898166666667</v>
       </c>
       <c r="H13">
-        <v>52.749977</v>
+        <v>324.26945</v>
       </c>
       <c r="I13">
-        <v>0.114196505761187</v>
+        <v>0.4072821437310581</v>
       </c>
       <c r="J13">
-        <v>0.1144748696355818</v>
+        <v>0.4087980313366845</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M13">
-        <v>0.01356733333333333</v>
+        <v>109.381785</v>
       </c>
       <c r="N13">
-        <v>0.040702</v>
+        <v>328.145355</v>
       </c>
       <c r="O13">
-        <v>6.001065220776088E-05</v>
+        <v>0.2371384510046057</v>
       </c>
       <c r="P13">
-        <v>6.004345271296557E-05</v>
+        <v>0.2372892167345643</v>
       </c>
       <c r="Q13">
-        <v>0.2385588404282222</v>
+        <v>11823.05708732275</v>
       </c>
       <c r="R13">
-        <v>2.147029563854</v>
+        <v>106407.5137859048</v>
       </c>
       <c r="S13">
-        <v>6.853006790576155E-06</v>
+        <v>0.09658225668621828</v>
       </c>
       <c r="T13">
-        <v>6.873466421786956E-06</v>
+        <v>0.09700336465851372</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1278,7 +1278,7 @@
         <v>27</v>
       </c>
       <c r="D14" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E14">
         <v>3</v>
@@ -1287,46 +1287,46 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>17.58332566666667</v>
+        <v>49.59263000000001</v>
       </c>
       <c r="H14">
-        <v>52.749977</v>
+        <v>148.77789</v>
       </c>
       <c r="I14">
-        <v>0.114196505761187</v>
+        <v>0.18686489886415</v>
       </c>
       <c r="J14">
-        <v>0.1144748696355818</v>
+        <v>0.1875604024320694</v>
       </c>
       <c r="K14">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>124.6539663333333</v>
+        <v>0.2680845</v>
       </c>
       <c r="N14">
-        <v>373.961899</v>
+        <v>0.536169</v>
       </c>
       <c r="O14">
-        <v>0.5513659638308389</v>
+        <v>0.0005812041106144338</v>
       </c>
       <c r="P14">
-        <v>0.5516673283636506</v>
+        <v>0.0003877157488557307</v>
       </c>
       <c r="Q14">
-        <v>2191.831285680703</v>
+        <v>13.295015417235</v>
       </c>
       <c r="R14">
-        <v>19726.48157112633</v>
+        <v>79.77009250341001</v>
       </c>
       <c r="S14">
-        <v>0.06296406646513082</v>
+        <v>0.0001086066473493944</v>
       </c>
       <c r="T14">
-        <v>0.06315204549663862</v>
+        <v>7.272012188463201E-05</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1340,7 +1340,7 @@
         <v>27</v>
       </c>
       <c r="D15" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E15">
         <v>3</v>
@@ -1349,46 +1349,46 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>17.58332566666667</v>
+        <v>49.59263000000001</v>
       </c>
       <c r="H15">
-        <v>52.749977</v>
+        <v>148.77789</v>
       </c>
       <c r="I15">
-        <v>0.114196505761187</v>
+        <v>0.18686489886415</v>
       </c>
       <c r="J15">
-        <v>0.1144748696355818</v>
+        <v>0.1875604024320694</v>
       </c>
       <c r="K15">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L15">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M15">
-        <v>0.4121773333333333</v>
+        <v>0.01356733333333333</v>
       </c>
       <c r="N15">
-        <v>1.236532</v>
+        <v>0.040702</v>
       </c>
       <c r="O15">
-        <v>0.001823131339879293</v>
+        <v>2.941382252017391E-05</v>
       </c>
       <c r="P15">
-        <v>0.001824127823450168</v>
+        <v>2.943252297302894E-05</v>
       </c>
       <c r="Q15">
-        <v>7.247448284418223</v>
+        <v>0.6728397420866667</v>
       </c>
       <c r="R15">
-        <v>65.22703455976399</v>
+        <v>6.055557678780001</v>
       </c>
       <c r="S15">
-        <v>0.0002081952285579263</v>
+        <v>5.496410970440356E-06</v>
       </c>
       <c r="T15">
-        <v>0.0002088167947880956</v>
+        <v>5.520375853412436E-06</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1402,7 +1402,7 @@
         <v>27</v>
       </c>
       <c r="D16" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E16">
         <v>3</v>
@@ -1411,16 +1411,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>17.58332566666667</v>
+        <v>49.59263000000001</v>
       </c>
       <c r="H16">
-        <v>52.749977</v>
+        <v>148.77789</v>
       </c>
       <c r="I16">
-        <v>0.114196505761187</v>
+        <v>0.18686489886415</v>
       </c>
       <c r="J16">
-        <v>0.1144748696355818</v>
+        <v>0.1875604024320694</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1429,95 +1429,95 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>100.6318613333333</v>
+        <v>160.3781766666667</v>
       </c>
       <c r="N16">
-        <v>301.895584</v>
+        <v>481.13453</v>
       </c>
       <c r="O16">
-        <v>0.4451120557830785</v>
+        <v>0.3476980412202665</v>
       </c>
       <c r="P16">
-        <v>0.4453553442621278</v>
+        <v>0.34791909752205</v>
       </c>
       <c r="Q16">
-        <v>1769.442790266841</v>
+        <v>7953.575575504636</v>
       </c>
       <c r="R16">
-        <v>15924.98511240157</v>
+        <v>71582.18017954171</v>
       </c>
       <c r="S16">
-        <v>0.05083024144260612</v>
+        <v>0.06497255930788817</v>
       </c>
       <c r="T16">
-        <v>0.05098199497591675</v>
+        <v>0.06525584594503811</v>
       </c>
     </row>
     <row r="17" spans="1:20">
       <c r="A17" t="s">
+        <v>22</v>
+      </c>
+      <c r="B17" t="s">
+        <v>26</v>
+      </c>
+      <c r="C17" t="s">
+        <v>27</v>
+      </c>
+      <c r="D17" t="s">
         <v>23</v>
       </c>
-      <c r="B17" t="s">
-        <v>26</v>
-      </c>
-      <c r="C17" t="s">
-        <v>27</v>
-      </c>
-      <c r="D17" t="s">
-        <v>20</v>
-      </c>
       <c r="E17">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>0.444929</v>
+        <v>49.59263000000001</v>
       </c>
       <c r="H17">
-        <v>0.889858</v>
+        <v>148.77789</v>
       </c>
       <c r="I17">
-        <v>0.002889631806577992</v>
+        <v>0.18686489886415</v>
       </c>
       <c r="J17">
-        <v>0.001931117022935945</v>
+        <v>0.1875604024320694</v>
       </c>
       <c r="K17">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L17">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="M17">
-        <v>0.370512</v>
+        <v>0.6111180000000001</v>
       </c>
       <c r="N17">
-        <v>0.741024</v>
+        <v>1.222236</v>
       </c>
       <c r="O17">
-        <v>0.001638838393995521</v>
+        <v>0.001324896790640531</v>
       </c>
       <c r="P17">
-        <v>0.00109315609805839</v>
+        <v>0.000883826080990197</v>
       </c>
       <c r="Q17">
-        <v>0.164851533648</v>
+        <v>30.30694886034001</v>
       </c>
       <c r="R17">
-        <v>0.659406134592</v>
+        <v>181.84169316204</v>
       </c>
       <c r="S17">
-        <v>4.735639549130653E-06</v>
+        <v>0.0002475767047884799</v>
       </c>
       <c r="T17">
-        <v>2.111012349686793E-06</v>
+        <v>0.0001657707754304801</v>
       </c>
     </row>
     <row r="18" spans="1:20">
       <c r="A18" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B18" t="s">
         <v>26</v>
@@ -1526,60 +1526,60 @@
         <v>27</v>
       </c>
       <c r="D18" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E18">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>0.444929</v>
+        <v>49.59263000000001</v>
       </c>
       <c r="H18">
-        <v>0.889858</v>
+        <v>148.77789</v>
       </c>
       <c r="I18">
-        <v>0.002889631806577992</v>
+        <v>0.18686489886415</v>
       </c>
       <c r="J18">
-        <v>0.001931117022935945</v>
+        <v>0.1875604024320694</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M18">
-        <v>0.01356733333333333</v>
+        <v>190.6043296666667</v>
       </c>
       <c r="N18">
-        <v>0.040702</v>
+        <v>571.812989</v>
       </c>
       <c r="O18">
-        <v>6.001065220776088E-05</v>
+        <v>0.4132279930513526</v>
       </c>
       <c r="P18">
-        <v>6.004345271296557E-05</v>
+        <v>0.4134907113905666</v>
       </c>
       <c r="Q18">
-        <v>0.006036500052666666</v>
+        <v>9452.569997557024</v>
       </c>
       <c r="R18">
-        <v>0.036219000316</v>
+        <v>85073.12997801322</v>
       </c>
       <c r="S18">
-        <v>1.734086893530356E-07</v>
+        <v>0.07721780712937669</v>
       </c>
       <c r="T18">
-        <v>1.159509336498573E-07</v>
+        <v>0.07755448423033734</v>
       </c>
     </row>
     <row r="19" spans="1:20">
       <c r="A19" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B19" t="s">
         <v>26</v>
@@ -1588,25 +1588,25 @@
         <v>27</v>
       </c>
       <c r="D19" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="E19">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>0.444929</v>
+        <v>49.59263000000001</v>
       </c>
       <c r="H19">
-        <v>0.889858</v>
+        <v>148.77789</v>
       </c>
       <c r="I19">
-        <v>0.002889631806577992</v>
+        <v>0.18686489886415</v>
       </c>
       <c r="J19">
-        <v>0.001931117022935945</v>
+        <v>0.1875604024320694</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1615,28 +1615,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>124.6539663333333</v>
+        <v>109.381785</v>
       </c>
       <c r="N19">
-        <v>373.961899</v>
+        <v>328.145355</v>
       </c>
       <c r="O19">
-        <v>0.5513659638308389</v>
+        <v>0.2371384510046057</v>
       </c>
       <c r="P19">
-        <v>0.5516673283636506</v>
+        <v>0.2372892167345643</v>
       </c>
       <c r="Q19">
-        <v>55.46216458672367</v>
+        <v>5424.53039224455</v>
       </c>
       <c r="R19">
-        <v>332.772987520342</v>
+        <v>48820.77353020095</v>
       </c>
       <c r="S19">
-        <v>0.001593244626150123</v>
+        <v>0.04431285266377684</v>
       </c>
       <c r="T19">
-        <v>0.00106533416880064</v>
+        <v>0.04450606098352541</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1650,7 +1650,7 @@
         <v>27</v>
       </c>
       <c r="D20" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E20">
         <v>2</v>
@@ -1659,46 +1659,46 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>0.444929</v>
+        <v>0.9116095</v>
       </c>
       <c r="H20">
-        <v>0.889858</v>
+        <v>1.823219</v>
       </c>
       <c r="I20">
-        <v>0.002889631806577992</v>
+        <v>0.003434942188407801</v>
       </c>
       <c r="J20">
-        <v>0.001931117022935945</v>
+        <v>0.002298484602529281</v>
       </c>
       <c r="K20">
         <v>2</v>
       </c>
       <c r="L20">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M20">
-        <v>0.4121773333333333</v>
+        <v>0.2680845</v>
       </c>
       <c r="N20">
-        <v>1.236532</v>
+        <v>0.536169</v>
       </c>
       <c r="O20">
-        <v>0.001823131339879293</v>
+        <v>0.0005812041106144338</v>
       </c>
       <c r="P20">
-        <v>0.001824127823450168</v>
+        <v>0.0003877157488557307</v>
       </c>
       <c r="Q20">
-        <v>0.1833896487426667</v>
+        <v>0.24438837700275</v>
       </c>
       <c r="R20">
-        <v>1.100337892456</v>
+        <v>0.9775535080109999</v>
       </c>
       <c r="S20">
-        <v>5.268178307284357E-06</v>
+        <v>1.996402519625553E-06</v>
       </c>
       <c r="T20">
-        <v>3.522604291875715E-06</v>
+        <v>8.911586789030068E-07</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1712,7 +1712,7 @@
         <v>27</v>
       </c>
       <c r="D21" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E21">
         <v>2</v>
@@ -1721,51 +1721,51 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>0.444929</v>
+        <v>0.9116095</v>
       </c>
       <c r="H21">
-        <v>0.889858</v>
+        <v>1.823219</v>
       </c>
       <c r="I21">
-        <v>0.002889631806577992</v>
+        <v>0.003434942188407801</v>
       </c>
       <c r="J21">
-        <v>0.001931117022935945</v>
+        <v>0.002298484602529281</v>
       </c>
       <c r="K21">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L21">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M21">
-        <v>100.6318613333333</v>
+        <v>0.01356733333333333</v>
       </c>
       <c r="N21">
-        <v>301.895584</v>
+        <v>0.040702</v>
       </c>
       <c r="O21">
-        <v>0.4451120557830785</v>
+        <v>2.941382252017391E-05</v>
       </c>
       <c r="P21">
-        <v>0.4453553442621278</v>
+        <v>2.943252297302894E-05</v>
       </c>
       <c r="Q21">
-        <v>44.77403343117867</v>
+        <v>0.01236810995633333</v>
       </c>
       <c r="R21">
-        <v>268.644200587072</v>
+        <v>0.074208659738</v>
       </c>
       <c r="S21">
-        <v>0.001286209953882101</v>
+        <v>1.010347798968848E-07</v>
       </c>
       <c r="T21">
-        <v>0.0008600332865600932</v>
+        <v>6.765020086709635E-08</v>
       </c>
     </row>
     <row r="22" spans="1:20">
       <c r="A22" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B22" t="s">
         <v>26</v>
@@ -1774,60 +1774,60 @@
         <v>27</v>
       </c>
       <c r="D22" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E22">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="G22">
-        <v>1.181792</v>
+        <v>0.9116095</v>
       </c>
       <c r="H22">
-        <v>3.545376</v>
+        <v>1.823219</v>
       </c>
       <c r="I22">
-        <v>0.007675255494605696</v>
+        <v>0.003434942188407801</v>
       </c>
       <c r="J22">
-        <v>0.00769396459469775</v>
+        <v>0.002298484602529281</v>
       </c>
       <c r="K22">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L22">
         <v>1</v>
       </c>
       <c r="M22">
-        <v>0.370512</v>
+        <v>160.3781766666667</v>
       </c>
       <c r="N22">
-        <v>0.741024</v>
+        <v>481.13453</v>
       </c>
       <c r="O22">
-        <v>0.001638838393995521</v>
+        <v>0.3476980412202665</v>
       </c>
       <c r="P22">
-        <v>0.00109315609805839</v>
+        <v>0.34791909752205</v>
       </c>
       <c r="Q22">
-        <v>0.437868117504</v>
+        <v>146.2022694420117</v>
       </c>
       <c r="R22">
-        <v>2.627208705024</v>
+        <v>877.2136166520701</v>
       </c>
       <c r="S22">
-        <v>1.25785033882849E-05</v>
+        <v>0.001194322670614248</v>
       </c>
       <c r="T22">
-        <v>8.410704314939196E-06</v>
+        <v>0.0007996866885803154</v>
       </c>
     </row>
     <row r="23" spans="1:20">
       <c r="A23" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B23" t="s">
         <v>26</v>
@@ -1836,87 +1836,87 @@
         <v>27</v>
       </c>
       <c r="D23" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E23">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
       <c r="G23">
-        <v>1.181792</v>
+        <v>0.9116095</v>
       </c>
       <c r="H23">
-        <v>3.545376</v>
+        <v>1.823219</v>
       </c>
       <c r="I23">
-        <v>0.007675255494605696</v>
+        <v>0.003434942188407801</v>
       </c>
       <c r="J23">
-        <v>0.00769396459469775</v>
+        <v>0.002298484602529281</v>
       </c>
       <c r="K23">
         <v>1</v>
       </c>
       <c r="L23">
-        <v>0.3333333333333333</v>
+        <v>0.5</v>
       </c>
       <c r="M23">
-        <v>0.01356733333333333</v>
+        <v>0.6111180000000001</v>
       </c>
       <c r="N23">
-        <v>0.040702</v>
+        <v>1.222236</v>
       </c>
       <c r="O23">
-        <v>6.001065220776088E-05</v>
+        <v>0.001324896790640531</v>
       </c>
       <c r="P23">
-        <v>6.004345271296557E-05</v>
+        <v>0.000883826080990197</v>
       </c>
       <c r="Q23">
-        <v>0.01603376599466666</v>
+        <v>0.557100974421</v>
       </c>
       <c r="R23">
-        <v>0.144303893952</v>
+        <v>2.228403897684</v>
       </c>
       <c r="S23">
-        <v>4.605970880924882E-07</v>
+        <v>4.550943881457259E-06</v>
       </c>
       <c r="T23">
-        <v>4.619721993169656E-07</v>
+        <v>2.031460638469765E-06</v>
       </c>
     </row>
     <row r="24" spans="1:20">
       <c r="A24" t="s">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>26</v>
+      </c>
+      <c r="C24" t="s">
+        <v>27</v>
+      </c>
+      <c r="D24" t="s">
         <v>24</v>
       </c>
-      <c r="B24" t="s">
-        <v>26</v>
-      </c>
-      <c r="C24" t="s">
-        <v>27</v>
-      </c>
-      <c r="D24" t="s">
-        <v>22</v>
-      </c>
       <c r="E24">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
       <c r="G24">
-        <v>1.181792</v>
+        <v>0.9116095</v>
       </c>
       <c r="H24">
-        <v>3.545376</v>
+        <v>1.823219</v>
       </c>
       <c r="I24">
-        <v>0.007675255494605696</v>
+        <v>0.003434942188407801</v>
       </c>
       <c r="J24">
-        <v>0.00769396459469775</v>
+        <v>0.002298484602529281</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1925,33 +1925,33 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>124.6539663333333</v>
+        <v>190.6043296666667</v>
       </c>
       <c r="N24">
-        <v>373.961899</v>
+        <v>571.812989</v>
       </c>
       <c r="O24">
-        <v>0.5513659638308389</v>
+        <v>0.4132279930513526</v>
       </c>
       <c r="P24">
-        <v>0.5516673283636506</v>
+        <v>0.4134907113905666</v>
       </c>
       <c r="Q24">
-        <v>147.3150601810027</v>
+        <v>173.7567176652652</v>
       </c>
       <c r="R24">
-        <v>1325.835541629024</v>
+        <v>1042.540305991591</v>
       </c>
       <c r="S24">
-        <v>0.004231874643431212</v>
+        <v>0.001419414266763177</v>
       </c>
       <c r="T24">
-        <v>0.004244508892481426</v>
+        <v>0.0009504020334200962</v>
       </c>
     </row>
     <row r="25" spans="1:20">
       <c r="A25" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B25" t="s">
         <v>26</v>
@@ -1960,55 +1960,55 @@
         <v>27</v>
       </c>
       <c r="D25" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E25">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F25">
         <v>1</v>
       </c>
       <c r="G25">
-        <v>1.181792</v>
+        <v>0.9116095</v>
       </c>
       <c r="H25">
-        <v>3.545376</v>
+        <v>1.823219</v>
       </c>
       <c r="I25">
-        <v>0.007675255494605696</v>
+        <v>0.003434942188407801</v>
       </c>
       <c r="J25">
-        <v>0.00769396459469775</v>
+        <v>0.002298484602529281</v>
       </c>
       <c r="K25">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L25">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M25">
-        <v>0.4121773333333333</v>
+        <v>109.381785</v>
       </c>
       <c r="N25">
-        <v>1.236532</v>
+        <v>328.145355</v>
       </c>
       <c r="O25">
-        <v>0.001823131339879293</v>
+        <v>0.2371384510046057</v>
       </c>
       <c r="P25">
-        <v>0.001824127823450168</v>
+        <v>0.2372892167345643</v>
       </c>
       <c r="Q25">
-        <v>0.4871078751146666</v>
+        <v>99.71347433295749</v>
       </c>
       <c r="R25">
-        <v>4.383970876032</v>
+        <v>598.280845997745</v>
       </c>
       <c r="S25">
-        <v>1.399299883379639E-05</v>
+        <v>0.0008145568698493963</v>
       </c>
       <c r="T25">
-        <v>1.403477488982866E-05</v>
+        <v>0.0005454056110106295</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2022,7 +2022,7 @@
         <v>27</v>
       </c>
       <c r="D26" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E26">
         <v>3</v>
@@ -2031,51 +2031,51 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>1.181792</v>
+        <v>97.62255466666666</v>
       </c>
       <c r="H26">
-        <v>3.545376</v>
+        <v>292.867664</v>
       </c>
       <c r="I26">
-        <v>0.007675255494605696</v>
+        <v>0.3678415281594588</v>
       </c>
       <c r="J26">
-        <v>0.00769396459469775</v>
+        <v>0.3692106193949926</v>
       </c>
       <c r="K26">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L26">
         <v>1</v>
       </c>
       <c r="M26">
-        <v>100.6318613333333</v>
+        <v>0.2680845</v>
       </c>
       <c r="N26">
-        <v>301.895584</v>
+        <v>0.536169</v>
       </c>
       <c r="O26">
-        <v>0.4451120557830785</v>
+        <v>0.0005812041106144338</v>
       </c>
       <c r="P26">
-        <v>0.4453553442621278</v>
+        <v>0.0003877157488557307</v>
       </c>
       <c r="Q26">
-        <v>118.9259286688427</v>
+        <v>26.171093756536</v>
       </c>
       <c r="R26">
-        <v>1070.333358019584</v>
+        <v>157.026562539216</v>
       </c>
       <c r="S26">
-        <v>0.00341634875186431</v>
+        <v>0.0002137910082209725</v>
       </c>
       <c r="T26">
-        <v>0.003426548250812238</v>
+        <v>0.0001431487717842177</v>
       </c>
     </row>
     <row r="27" spans="1:20">
       <c r="A27" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B27" t="s">
         <v>26</v>
@@ -2084,7 +2084,7 @@
         <v>27</v>
       </c>
       <c r="D27" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E27">
         <v>3</v>
@@ -2093,51 +2093,51 @@
         <v>1</v>
       </c>
       <c r="G27">
-        <v>25.99611466666667</v>
+        <v>97.62255466666666</v>
       </c>
       <c r="H27">
-        <v>77.988344</v>
+        <v>292.867664</v>
       </c>
       <c r="I27">
-        <v>0.1688341281153816</v>
+        <v>0.3678415281594588</v>
       </c>
       <c r="J27">
-        <v>0.1692456759269281</v>
+        <v>0.3692106193949926</v>
       </c>
       <c r="K27">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L27">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M27">
-        <v>0.370512</v>
+        <v>0.01356733333333333</v>
       </c>
       <c r="N27">
-        <v>0.741024</v>
+        <v>0.040702</v>
       </c>
       <c r="O27">
-        <v>0.001638838393995521</v>
+        <v>2.941382252017391E-05</v>
       </c>
       <c r="P27">
-        <v>0.00109315609805839</v>
+        <v>2.943252297302894E-05</v>
       </c>
       <c r="Q27">
-        <v>9.631872437376</v>
+        <v>1.324477740014222</v>
       </c>
       <c r="R27">
-        <v>57.791234624256</v>
+        <v>11.920299660128</v>
       </c>
       <c r="S27">
-        <v>0.0002766918513722461</v>
+        <v>1.081962542483187E-05</v>
       </c>
       <c r="T27">
-        <v>0.0001850119427095356</v>
+        <v>1.086680003722936E-05</v>
       </c>
     </row>
     <row r="28" spans="1:20">
       <c r="A28" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B28" t="s">
         <v>26</v>
@@ -2146,7 +2146,7 @@
         <v>27</v>
       </c>
       <c r="D28" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E28">
         <v>3</v>
@@ -2155,51 +2155,51 @@
         <v>1</v>
       </c>
       <c r="G28">
-        <v>25.99611466666667</v>
+        <v>97.62255466666666</v>
       </c>
       <c r="H28">
-        <v>77.988344</v>
+        <v>292.867664</v>
       </c>
       <c r="I28">
-        <v>0.1688341281153816</v>
+        <v>0.3678415281594588</v>
       </c>
       <c r="J28">
-        <v>0.1692456759269281</v>
+        <v>0.3692106193949926</v>
       </c>
       <c r="K28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L28">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M28">
-        <v>0.01356733333333333</v>
+        <v>160.3781766666667</v>
       </c>
       <c r="N28">
-        <v>0.040702</v>
+        <v>481.13453</v>
       </c>
       <c r="O28">
-        <v>6.001065220776088E-05</v>
+        <v>0.3476980412202665</v>
       </c>
       <c r="P28">
-        <v>6.004345271296557E-05</v>
+        <v>0.34791909752205</v>
       </c>
       <c r="Q28">
-        <v>0.3526979530542222</v>
+        <v>15656.52731898199</v>
       </c>
       <c r="R28">
-        <v>3.174281577487999</v>
+        <v>140908.7458708379</v>
       </c>
       <c r="S28">
-        <v>1.013184614313271E-05</v>
+        <v>0.1278977788205133</v>
       </c>
       <c r="T28">
-        <v>1.01620947393924E-05</v>
+        <v>0.1284554254954629</v>
       </c>
     </row>
     <row r="29" spans="1:20">
       <c r="A29" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B29" t="s">
         <v>26</v>
@@ -2208,7 +2208,7 @@
         <v>27</v>
       </c>
       <c r="D29" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E29">
         <v>3</v>
@@ -2217,51 +2217,51 @@
         <v>1</v>
       </c>
       <c r="G29">
-        <v>25.99611466666667</v>
+        <v>97.62255466666666</v>
       </c>
       <c r="H29">
-        <v>77.988344</v>
+        <v>292.867664</v>
       </c>
       <c r="I29">
-        <v>0.1688341281153816</v>
+        <v>0.3678415281594588</v>
       </c>
       <c r="J29">
-        <v>0.1692456759269281</v>
+        <v>0.3692106193949926</v>
       </c>
       <c r="K29">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L29">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="M29">
-        <v>124.6539663333333</v>
+        <v>0.6111180000000001</v>
       </c>
       <c r="N29">
-        <v>373.961899</v>
+        <v>1.222236</v>
       </c>
       <c r="O29">
-        <v>0.5513659638308389</v>
+        <v>0.001324896790640531</v>
       </c>
       <c r="P29">
-        <v>0.5516673283636506</v>
+        <v>0.000883826080990197</v>
       </c>
       <c r="Q29">
-        <v>3240.51880245614</v>
+        <v>59.658900362784</v>
       </c>
       <c r="R29">
-        <v>29164.66922210526</v>
+        <v>357.953402176704</v>
       </c>
       <c r="S29">
-        <v>0.09308939177587673</v>
+        <v>0.0004873520601227757</v>
       </c>
       <c r="T29">
-        <v>0.09336730987570864</v>
+        <v>0.0003263179747998395</v>
       </c>
     </row>
     <row r="30" spans="1:20">
       <c r="A30" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B30" t="s">
         <v>26</v>
@@ -2279,51 +2279,51 @@
         <v>1</v>
       </c>
       <c r="G30">
-        <v>25.99611466666667</v>
+        <v>97.62255466666666</v>
       </c>
       <c r="H30">
-        <v>77.988344</v>
+        <v>292.867664</v>
       </c>
       <c r="I30">
-        <v>0.1688341281153816</v>
+        <v>0.3678415281594588</v>
       </c>
       <c r="J30">
-        <v>0.1692456759269281</v>
+        <v>0.3692106193949926</v>
       </c>
       <c r="K30">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L30">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M30">
-        <v>0.4121773333333333</v>
+        <v>190.6043296666667</v>
       </c>
       <c r="N30">
-        <v>1.236532</v>
+        <v>571.812989</v>
       </c>
       <c r="O30">
-        <v>0.001823131339879293</v>
+        <v>0.4132279930513526</v>
       </c>
       <c r="P30">
-        <v>0.001824127823450168</v>
+        <v>0.4134907113905666</v>
       </c>
       <c r="Q30">
-        <v>10.71500922033422</v>
+        <v>18607.28159258752</v>
       </c>
       <c r="R30">
-        <v>96.435082983008</v>
+        <v>167465.5343332877</v>
       </c>
       <c r="S30">
-        <v>0.0003078067902083479</v>
+        <v>0.1520024164422758</v>
       </c>
       <c r="T30">
-        <v>0.0003087257464569399</v>
+        <v>0.1526651616665872</v>
       </c>
     </row>
     <row r="31" spans="1:20">
       <c r="A31" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B31" t="s">
         <v>26</v>
@@ -2341,16 +2341,16 @@
         <v>1</v>
       </c>
       <c r="G31">
-        <v>25.99611466666667</v>
+        <v>97.62255466666666</v>
       </c>
       <c r="H31">
-        <v>77.988344</v>
+        <v>292.867664</v>
       </c>
       <c r="I31">
-        <v>0.1688341281153816</v>
+        <v>0.3678415281594588</v>
       </c>
       <c r="J31">
-        <v>0.1692456759269281</v>
+        <v>0.3692106193949926</v>
       </c>
       <c r="K31">
         <v>3</v>
@@ -2359,28 +2359,400 @@
         <v>1</v>
       </c>
       <c r="M31">
-        <v>100.6318613333333</v>
+        <v>109.381785</v>
       </c>
       <c r="N31">
-        <v>301.895584</v>
+        <v>328.145355</v>
       </c>
       <c r="O31">
-        <v>0.4451120557830785</v>
+        <v>0.2371384510046057</v>
       </c>
       <c r="P31">
-        <v>0.4453553442621278</v>
+        <v>0.2372892167345643</v>
       </c>
       <c r="Q31">
-        <v>2616.037406341433</v>
+        <v>10678.12928570008</v>
       </c>
       <c r="R31">
-        <v>23544.33665707289</v>
+        <v>96103.16357130071</v>
       </c>
       <c r="S31">
-        <v>0.07515010585178117</v>
+        <v>0.0872293702029011</v>
       </c>
       <c r="T31">
-        <v>0.07537446626731358</v>
+        <v>0.08760969868632112</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20">
+      <c r="A32" t="s">
+        <v>25</v>
+      </c>
+      <c r="B32" t="s">
+        <v>26</v>
+      </c>
+      <c r="C32" t="s">
+        <v>27</v>
+      </c>
+      <c r="D32" t="s">
+        <v>20</v>
+      </c>
+      <c r="E32">
+        <v>3</v>
+      </c>
+      <c r="F32">
+        <v>1</v>
+      </c>
+      <c r="G32">
+        <v>7.135609000000001</v>
+      </c>
+      <c r="H32">
+        <v>21.406827</v>
+      </c>
+      <c r="I32">
+        <v>0.02688695586661</v>
+      </c>
+      <c r="J32">
+        <v>0.0269870280248879</v>
+      </c>
+      <c r="K32">
+        <v>2</v>
+      </c>
+      <c r="L32">
+        <v>1</v>
+      </c>
+      <c r="M32">
+        <v>0.2680845</v>
+      </c>
+      <c r="N32">
+        <v>0.536169</v>
+      </c>
+      <c r="O32">
+        <v>0.0005812041106144338</v>
+      </c>
+      <c r="P32">
+        <v>0.0003877157488557307</v>
+      </c>
+      <c r="Q32">
+        <v>1.9129461709605</v>
+      </c>
+      <c r="R32">
+        <v>11.477677025763</v>
+      </c>
+      <c r="S32">
+        <v>1.56268092715826E-05</v>
+      </c>
+      <c r="T32">
+        <v>1.046329578006E-05</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20">
+      <c r="A33" t="s">
+        <v>25</v>
+      </c>
+      <c r="B33" t="s">
+        <v>26</v>
+      </c>
+      <c r="C33" t="s">
+        <v>27</v>
+      </c>
+      <c r="D33" t="s">
+        <v>21</v>
+      </c>
+      <c r="E33">
+        <v>3</v>
+      </c>
+      <c r="F33">
+        <v>1</v>
+      </c>
+      <c r="G33">
+        <v>7.135609000000001</v>
+      </c>
+      <c r="H33">
+        <v>21.406827</v>
+      </c>
+      <c r="I33">
+        <v>0.02688695586661</v>
+      </c>
+      <c r="J33">
+        <v>0.0269870280248879</v>
+      </c>
+      <c r="K33">
+        <v>1</v>
+      </c>
+      <c r="L33">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M33">
+        <v>0.01356733333333333</v>
+      </c>
+      <c r="N33">
+        <v>0.040702</v>
+      </c>
+      <c r="O33">
+        <v>2.941382252017391E-05</v>
+      </c>
+      <c r="P33">
+        <v>2.943252297302894E-05</v>
+      </c>
+      <c r="Q33">
+        <v>0.09681118583933336</v>
+      </c>
+      <c r="R33">
+        <v>0.8713006725540002</v>
+      </c>
+      <c r="S33">
+        <v>7.908481479682151E-07</v>
+      </c>
+      <c r="T33">
+        <v>7.942963223162888E-07</v>
+      </c>
+    </row>
+    <row r="34" spans="1:20">
+      <c r="A34" t="s">
+        <v>25</v>
+      </c>
+      <c r="B34" t="s">
+        <v>26</v>
+      </c>
+      <c r="C34" t="s">
+        <v>27</v>
+      </c>
+      <c r="D34" t="s">
+        <v>22</v>
+      </c>
+      <c r="E34">
+        <v>3</v>
+      </c>
+      <c r="F34">
+        <v>1</v>
+      </c>
+      <c r="G34">
+        <v>7.135609000000001</v>
+      </c>
+      <c r="H34">
+        <v>21.406827</v>
+      </c>
+      <c r="I34">
+        <v>0.02688695586661</v>
+      </c>
+      <c r="J34">
+        <v>0.0269870280248879</v>
+      </c>
+      <c r="K34">
+        <v>3</v>
+      </c>
+      <c r="L34">
+        <v>1</v>
+      </c>
+      <c r="M34">
+        <v>160.3781766666667</v>
+      </c>
+      <c r="N34">
+        <v>481.13453</v>
+      </c>
+      <c r="O34">
+        <v>0.3476980412202665</v>
+      </c>
+      <c r="P34">
+        <v>0.34791909752205</v>
+      </c>
+      <c r="Q34">
+        <v>1144.395960826257</v>
+      </c>
+      <c r="R34">
+        <v>10299.56364743631</v>
+      </c>
+      <c r="S34">
+        <v>0.00934854188919605</v>
+      </c>
+      <c r="T34">
+        <v>0.009389302435221271</v>
+      </c>
+    </row>
+    <row r="35" spans="1:20">
+      <c r="A35" t="s">
+        <v>25</v>
+      </c>
+      <c r="B35" t="s">
+        <v>26</v>
+      </c>
+      <c r="C35" t="s">
+        <v>27</v>
+      </c>
+      <c r="D35" t="s">
+        <v>23</v>
+      </c>
+      <c r="E35">
+        <v>3</v>
+      </c>
+      <c r="F35">
+        <v>1</v>
+      </c>
+      <c r="G35">
+        <v>7.135609000000001</v>
+      </c>
+      <c r="H35">
+        <v>21.406827</v>
+      </c>
+      <c r="I35">
+        <v>0.02688695586661</v>
+      </c>
+      <c r="J35">
+        <v>0.0269870280248879</v>
+      </c>
+      <c r="K35">
+        <v>1</v>
+      </c>
+      <c r="L35">
+        <v>0.5</v>
+      </c>
+      <c r="M35">
+        <v>0.6111180000000001</v>
+      </c>
+      <c r="N35">
+        <v>1.222236</v>
+      </c>
+      <c r="O35">
+        <v>0.001324896790640531</v>
+      </c>
+      <c r="P35">
+        <v>0.000883826080990197</v>
+      </c>
+      <c r="Q35">
+        <v>4.360699100862001</v>
+      </c>
+      <c r="R35">
+        <v>26.16419460517201</v>
+      </c>
+      <c r="S35">
+        <v>3.562244153776519E-05</v>
+      </c>
+      <c r="T35">
+        <v>2.385183921680929E-05</v>
+      </c>
+    </row>
+    <row r="36" spans="1:20">
+      <c r="A36" t="s">
+        <v>25</v>
+      </c>
+      <c r="B36" t="s">
+        <v>26</v>
+      </c>
+      <c r="C36" t="s">
+        <v>27</v>
+      </c>
+      <c r="D36" t="s">
+        <v>24</v>
+      </c>
+      <c r="E36">
+        <v>3</v>
+      </c>
+      <c r="F36">
+        <v>1</v>
+      </c>
+      <c r="G36">
+        <v>7.135609000000001</v>
+      </c>
+      <c r="H36">
+        <v>21.406827</v>
+      </c>
+      <c r="I36">
+        <v>0.02688695586661</v>
+      </c>
+      <c r="J36">
+        <v>0.0269870280248879</v>
+      </c>
+      <c r="K36">
+        <v>3</v>
+      </c>
+      <c r="L36">
+        <v>1</v>
+      </c>
+      <c r="M36">
+        <v>190.6043296666667</v>
+      </c>
+      <c r="N36">
+        <v>571.812989</v>
+      </c>
+      <c r="O36">
+        <v>0.4132279930513526</v>
+      </c>
+      <c r="P36">
+        <v>0.4134907113905666</v>
+      </c>
+      <c r="Q36">
+        <v>1360.077970208434</v>
+      </c>
+      <c r="R36">
+        <v>12240.7017318759</v>
+      </c>
+      <c r="S36">
+        <v>0.01111044281201954</v>
+      </c>
+      <c r="T36">
+        <v>0.01115888541632806</v>
+      </c>
+    </row>
+    <row r="37" spans="1:20">
+      <c r="A37" t="s">
+        <v>25</v>
+      </c>
+      <c r="B37" t="s">
+        <v>26</v>
+      </c>
+      <c r="C37" t="s">
+        <v>27</v>
+      </c>
+      <c r="D37" t="s">
+        <v>25</v>
+      </c>
+      <c r="E37">
+        <v>3</v>
+      </c>
+      <c r="F37">
+        <v>1</v>
+      </c>
+      <c r="G37">
+        <v>7.135609000000001</v>
+      </c>
+      <c r="H37">
+        <v>21.406827</v>
+      </c>
+      <c r="I37">
+        <v>0.02688695586661</v>
+      </c>
+      <c r="J37">
+        <v>0.0269870280248879</v>
+      </c>
+      <c r="K37">
+        <v>3</v>
+      </c>
+      <c r="L37">
+        <v>1</v>
+      </c>
+      <c r="M37">
+        <v>109.381785</v>
+      </c>
+      <c r="N37">
+        <v>328.145355</v>
+      </c>
+      <c r="O37">
+        <v>0.2371384510046057</v>
+      </c>
+      <c r="P37">
+        <v>0.2372892167345643</v>
+      </c>
+      <c r="Q37">
+        <v>780.5056494820651</v>
+      </c>
+      <c r="R37">
+        <v>7024.550845338586</v>
+      </c>
+      <c r="S37">
+        <v>0.00637593106643709</v>
+      </c>
+      <c r="T37">
+        <v>0.006403730742019385</v>
       </c>
     </row>
   </sheetData>
